--- a/biology/Zoologie/Charinus_longitarsus/Charinus_longitarsus.xlsx
+++ b/biology/Zoologie/Charinus_longitarsus/Charinus_longitarsus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus longitarsus est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région de Cuzco au Pérou[1]. Elle se rencontre vers Huyro entre 1 210 et 1 642 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Cuzco au Pérou. Elle se rencontre vers Huyro entre 1 210 et 1 642 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 6,5 mm, sa carapace 2,5 mm de long sur 3,4 mm et le mâle paratype 6,8 mm, sa carapace 2,7 mm de long sur 3,2 mm, les mâles mesurent de 6,0 à 6,8 mm et les femelles de 5,5 à 8,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 6,5 mm, sa carapace 2,5 mm de long sur 3,4 mm et le mâle paratype 6,8 mm, sa carapace 2,7 mm de long sur 3,2 mm, les mâles mesurent de 6,0 à 6,8 mm et les femelles de 5,5 à 8,2 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Armas, Palomino-Cardenas &amp; Castillo-Espinoza, 2016 : « Amblipigidos de los departamentos Cusco y Madre de Dios, Peru, con la descripcion de un nuevo Charinus (Amblypygi: Charinidae, Phrynidae). » Revista Iberica de Aracnologia, no 28, p. 45–50.</t>
         </is>
